--- a/testCase/Run.xlsx
+++ b/testCase/Run.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="授权" sheetId="1" r:id="rId1"/>
     <sheet name="登录" sheetId="2" r:id="rId2"/>
+    <sheet name="查询用户信息" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="62">
   <si>
     <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +255,127 @@
   </si>
   <si>
     <t>ted1@</t>
+  </si>
+  <si>
+    <t>持空token请求授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.getJsonValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您，登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录后再次登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP//logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录获取用户信息</t>
+    <rPh sb="0" eb="1">
+      <t>wei'deng'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP//getUserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还未登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户信息</t>
+    <rPh sb="0" eb="1">
+      <t>cha'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.clearUrlParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法查询其他用户</t>
+    <rPh sb="0" eb="1">
+      <t>fei'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法查询</t>
+    <rPh sb="0" eb="1">
+      <t>fei'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已经在别处登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -609,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -838,7 +960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -850,9 +972,69 @@
         <v>19</v>
       </c>
     </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A2:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -902,60 +1084,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>402</v>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -964,67 +1137,67 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>123456</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>402</v>
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1033,70 +1206,67 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>123456</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>401</v>
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1105,70 +1275,70 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>123456</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>401</v>
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1177,70 +1347,70 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>123456</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>401</v>
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1249,18 +1419,662 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E30" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4"/>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4"/>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4"/>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4"/>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4"/>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4"/>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4"/>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4"/>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4"/>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4"/>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4"/>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4"/>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4"/>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A2:A46"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testCase/Run.xlsx
+++ b/testCase/Run.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/JavaWorkspace/InterfaceTest/testCase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="授权" sheetId="1" r:id="rId1"/>
     <sheet name="登录" sheetId="2" r:id="rId2"/>
     <sheet name="查询用户信息" sheetId="3" r:id="rId3"/>
+    <sheet name="注册" sheetId="4" r:id="rId4"/>
+    <sheet name="登出" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="118">
   <si>
     <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>272612925a920a1eabe83924283f541a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,19 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录用户名不存在</t>
-    <rPh sb="0" eb="1">
-      <t>deng'lu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'hu'm</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>bu'cun'z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ted1555555</t>
   </si>
   <si>
@@ -261,16 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录成功</t>
-    <rPh sb="0" eb="1">
-      <t>deng'lu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cheng'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http.getJsonValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,30 +355,486 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户已经在别处登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.addUrlParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertResContain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录后再请求授权</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qing'q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shou'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名2位</t>
+    <rPh sb="0" eb="1">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名17位</t>
+    <rPh sb="0" eb="1">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1ted1ted1ted1t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名密码正确</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传用户名</t>
+    <rPh sb="0" eb="1">
+      <t>bu'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传密码</t>
+    <rPh sb="0" eb="1">
+      <t>bu'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uesrname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名没注册</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei'zhu'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传id查询</t>
+    <rPh sb="0" eb="1">
+      <t>bu'chuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id为特殊字符</t>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>te's</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未授权查询</t>
+    <rPh sb="0" eb="1">
+      <t>wei'sou'q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cha'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>查询用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户已经在别处登录</t>
+    <rPh sb="0" eb="1">
+      <t>cha'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码包含特殊字符</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'h</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>te's</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*&amp;（%￥#）——+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户名为空</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei'kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahaha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP//register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册密码为空</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1ted1</t>
+  </si>
+  <si>
+    <t>http.addUrlEncodedParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈</t>
+    <rPh sb="0" eb="1">
+      <t>ha'ha'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册昵称为空</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ni'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1ted1ted1</t>
+  </si>
+  <si>
+    <t>用户已被注册</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已被注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户名2位</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户名有特殊字符</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>te's</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te@@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tedted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册密码有特殊字符</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>te's</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12￥%……@@@&amp;*3456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无授权注册</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shou'q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录调登出接口</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录</t>
+    <rPh sb="0" eb="1">
+      <t>tui'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已退出登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -421,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,12 +878,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -489,12 +938,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -521,14 +970,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -555,6 +1005,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,23 +1181,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -786,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>20</v>
@@ -795,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -807,7 +1258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -819,7 +1270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -834,7 +1285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -846,7 +1297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -858,7 +1309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -867,10 +1318,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -882,7 +1333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
@@ -897,7 +1348,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -909,7 +1360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>21</v>
@@ -921,7 +1372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -933,7 +1384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -945,7 +1396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -956,11 +1407,11 @@
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -972,10 +1423,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -984,19 +1435,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1005,10 +1456,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
@@ -1020,10 +1471,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
@@ -1032,9 +1483,126 @@
         <v>19</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A2:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1043,22 +1611,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,12 +1652,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1098,19 +1666,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1119,10 +1687,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -1131,49 +1699,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>123456</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1185,64 +1753,64 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1254,456 +1822,786 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E17">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
         <v>29</v>
       </c>
-      <c r="E35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
       </c>
-      <c r="E36">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="E45">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A46"/>
+    <mergeCell ref="A2:A69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1711,22 +2609,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,33 +2650,1465 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A61"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1787,10 +4117,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1799,282 +4129,135 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="E6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="E10">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="E11">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4"/>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testCase/Run.xlsx
+++ b/testCase/Run.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21860" activeTab="3"/>
+    <workbookView xWindow="10600" yWindow="460" windowWidth="40960" windowHeight="21860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="授权" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="122">
   <si>
     <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -738,14 +738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>te@@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tedted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册密码有特殊字符</t>
     <rPh sb="0" eb="1">
       <t>zhu'c</t>
@@ -816,6 +808,33 @@
   </si>
   <si>
     <t>用户已退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求</t>
+    <rPh sb="0" eb="1">
+      <t>fei'fa'qing'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te@@#￥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tedtedted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.getToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.addToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${token}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,7 +1204,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3141,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3184,7 +3203,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -3196,7 +3215,7 @@
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -3209,7 +3228,7 @@
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3224,7 +3243,7 @@
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -3239,7 +3258,7 @@
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -3254,7 +3273,7 @@
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -3263,7 +3282,7 @@
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -3272,13 +3291,13 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -3287,7 +3306,7 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3638,7 +3657,7 @@
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3731,7 +3750,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -3740,13 +3759,13 @@
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -3755,13 +3774,13 @@
         <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -3776,7 +3795,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -3791,7 +3810,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -3803,7 +3822,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -3818,7 +3837,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -4042,16 +4061,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4084,10 +4103,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -4099,7 +4118,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -4108,7 +4127,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -4120,7 +4139,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -4132,7 +4151,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -4144,7 +4163,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -4159,7 +4178,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -4171,93 +4190,141 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
+        <v>114</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>123456</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>117</v>
+      <c r="E18" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A2:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testCase/Run.xlsx
+++ b/testCase/Run.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="152">
   <si>
     <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册用户名为空</t>
     <rPh sb="0" eb="1">
       <t>zhu'c</t>
@@ -909,14 +905,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ted5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ted6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数错误</t>
     <rPh sb="0" eb="1">
       <t>fei'fa</t>
@@ -934,6 +922,111 @@
     <rPh sb="2" eb="3">
       <t>cha'x</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户名17位</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tedtedtedtedtedte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名16位</t>
+    <rPh sb="0" eb="1">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1ted1ted1ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名3位</t>
+    <rPh sb="0" eb="1">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户名3位</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户名16位</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted3ted3ted3ted3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1313,7 +1406,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1330,45 +1423,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1377,37 +1470,37 @@
     <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -1416,7 +1509,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -1428,22 +1521,22 @@
     <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -1452,25 +1545,25 @@
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1">
         <v>200</v>
@@ -1479,7 +1572,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
@@ -1491,49 +1584,49 @@
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1">
         <v>200</v>
@@ -1542,7 +1635,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
@@ -1554,25 +1647,25 @@
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1584,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1593,10 +1686,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1">
         <v>201</v>
@@ -1623,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1632,7 +1725,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1644,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1653,10 +1746,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1">
         <v>200</v>
@@ -1680,10 +1773,10 @@
         <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1692,10 +1785,10 @@
         <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1725,7 +1818,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1749,7 +1842,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1758,10 +1851,10 @@
         <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>38</v>
@@ -1803,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1824,33 +1917,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1862,7 +1955,7 @@
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -1871,13 +1964,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1886,13 +1979,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -1901,13 +1994,13 @@
     <row r="6" spans="1:8" s="1" customFormat="1">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="3">
         <v>405</v>
@@ -1916,16 +2009,16 @@
     <row r="7" spans="1:8" s="1" customFormat="1">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1">
@@ -1937,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1">
@@ -1946,10 +2039,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
@@ -1958,10 +2051,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2009,10 +2102,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3">
         <v>402</v>
@@ -2024,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>13</v>
@@ -2078,10 +2171,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="3">
         <v>402</v>
@@ -2093,7 +2186,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>13</v>
@@ -2135,10 +2228,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="3">
         <v>402</v>
@@ -2150,7 +2243,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>13</v>
@@ -2192,10 +2285,10 @@
         <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="3">
         <v>402</v>
@@ -2207,7 +2300,7 @@
         <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>13</v>
@@ -2264,10 +2357,10 @@
         <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="3">
         <v>401</v>
@@ -2279,7 +2372,7 @@
         <v>51</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>13</v>
@@ -2336,10 +2429,10 @@
         <v>19</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="3">
         <v>401</v>
@@ -2351,7 +2444,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>13</v>
@@ -2408,10 +2501,10 @@
         <v>21</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="3">
         <v>401</v>
@@ -2423,7 +2516,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2459,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2480,10 +2573,10 @@
         <v>55</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" s="3">
         <v>401</v>
@@ -2495,7 +2588,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>13</v>
@@ -2552,10 +2645,10 @@
         <v>43</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="3">
         <v>402</v>
@@ -2567,7 +2660,7 @@
         <v>43</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>13</v>
@@ -2624,10 +2717,10 @@
         <v>45</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E57" s="3">
         <v>402</v>
@@ -2639,7 +2732,7 @@
         <v>45</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>13</v>
@@ -2650,22 +2743,22 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>4</v>
@@ -2674,31 +2767,31 @@
     <row r="61" spans="1:5">
       <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="5"/>
       <c r="B62" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="5"/>
       <c r="B63" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>9</v>
@@ -2707,13 +2800,13 @@
         <v>10</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="5"/>
       <c r="B64" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>9</v>
@@ -2722,13 +2815,13 @@
         <v>11</v>
       </c>
       <c r="E64" s="3">
-        <v>123456</v>
+        <v>888888</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="5"/>
       <c r="B65" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
@@ -2740,198 +2833,211 @@
     <row r="66" spans="1:5">
       <c r="A66" s="5"/>
       <c r="B66" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>26</v>
+        <v>87</v>
+      </c>
+      <c r="E66" s="3">
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5"/>
       <c r="B67" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="3">
-        <v>200</v>
+        <v>13</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="5"/>
       <c r="B68" s="3" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="5"/>
       <c r="B69" s="3" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="E69" s="3">
+        <v>123456</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="5"/>
       <c r="B70" s="3" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="3">
-        <v>123456</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="5"/>
       <c r="B71" s="3" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="E71" s="3">
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5"/>
       <c r="B72" s="3" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="3">
-        <v>406</v>
+        <v>13</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="5"/>
       <c r="B73" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5"/>
       <c r="B74" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="E74" s="3">
+        <v>123456</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A75" s="5"/>
       <c r="B75" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="5"/>
       <c r="B76" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="5"/>
       <c r="B77" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>87</v>
+      </c>
+      <c r="E77" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="5"/>
       <c r="B78" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="5"/>
       <c r="B79" s="3" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="5"/>
       <c r="B80" s="3" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>9</v>
@@ -2940,13 +3046,13 @@
         <v>11</v>
       </c>
       <c r="E80" s="3">
-        <v>888888</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5"/>
       <c r="B81" s="3" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -2958,110 +3064,241 @@
     <row r="82" spans="1:5">
       <c r="A82" s="5"/>
       <c r="B82" s="3" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E82" s="3">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5"/>
       <c r="B83" s="3" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="5"/>
       <c r="B84" s="3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="B85" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="5"/>
       <c r="B86" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="5"/>
       <c r="B87" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E87" s="3">
-        <v>401</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="5"/>
       <c r="B88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="5"/>
+      <c r="B89" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="5"/>
+      <c r="B90" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="3">
+        <v>888888</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="5"/>
+      <c r="B91" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="5"/>
+      <c r="B92" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="5"/>
+      <c r="B93" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="5"/>
+      <c r="B94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="5"/>
+      <c r="B95" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D88" s="3" t="s">
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="5"/>
+      <c r="B96" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="5"/>
+      <c r="B97" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E97" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="5"/>
+      <c r="B98" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A58"/>
-    <mergeCell ref="A59:A74"/>
-    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="A59:A84"/>
+    <mergeCell ref="A85:A98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3072,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3091,25 +3328,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
@@ -3158,10 +3395,10 @@
         <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="3">
         <v>405</v>
@@ -3173,13 +3410,13 @@
         <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3191,7 +3428,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3200,10 +3437,10 @@
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3212,10 +3449,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3251,10 +3488,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>401</v>
@@ -3266,7 +3503,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
@@ -3278,7 +3515,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
@@ -3290,13 +3527,13 @@
     <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3">
         <v>401</v>
@@ -3305,10 +3542,10 @@
     <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
@@ -3320,7 +3557,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -3335,7 +3572,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
@@ -3347,13 +3584,13 @@
     <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="3">
         <v>401</v>
@@ -3362,10 +3599,10 @@
     <row r="20" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>13</v>
@@ -3377,7 +3614,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
@@ -3392,7 +3629,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
@@ -3407,7 +3644,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -3419,7 +3656,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>24</v>
@@ -3434,16 +3671,16 @@
     <row r="25" spans="1:5">
       <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6"/>
       <c r="B26" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
@@ -3452,13 +3689,13 @@
         <v>26</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -3470,13 +3707,13 @@
     <row r="28" spans="1:5">
       <c r="A28" s="6"/>
       <c r="B28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="3">
         <v>200</v>
@@ -3485,22 +3722,22 @@
     <row r="29" spans="1:5">
       <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>39</v>
@@ -3512,19 +3749,19 @@
     <row r="31" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>4</v>
@@ -3536,13 +3773,13 @@
     <row r="33" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="3">
         <v>402</v>
@@ -3551,22 +3788,22 @@
     <row r="34" spans="1:5">
       <c r="A34" s="6"/>
       <c r="B34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
@@ -3581,7 +3818,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>4</v>
@@ -3593,13 +3830,13 @@
     <row r="37" spans="1:5">
       <c r="A37" s="6"/>
       <c r="B37" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="3">
         <v>402</v>
@@ -3608,16 +3845,16 @@
     <row r="38" spans="1:5">
       <c r="A38" s="6"/>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3653,10 +3890,10 @@
         <v>33</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="3">
         <v>404</v>
@@ -3668,7 +3905,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>13</v>
@@ -3700,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -3712,7 +3949,7 @@
     <col min="2" max="2" width="21.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
@@ -3721,45 +3958,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3772,13 +4009,13 @@
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3">
         <v>123456</v>
@@ -3787,13 +4024,13 @@
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
@@ -3802,22 +4039,22 @@
     <row r="6" spans="1:8" s="1" customFormat="1">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -3826,13 +4063,13 @@
     <row r="8" spans="1:8" s="1" customFormat="1">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="3">
         <v>405</v>
@@ -3841,58 +4078,58 @@
     <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -3904,13 +4141,13 @@
     <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3">
         <v>123456</v>
@@ -3919,13 +4156,13 @@
     <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -3934,40 +4171,40 @@
     <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="3">
         <v>402</v>
@@ -3976,28 +4213,28 @@
     <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="3">
         <v>123456</v>
@@ -4006,13 +4243,13 @@
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
@@ -4021,40 +4258,40 @@
     <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="3">
         <v>402</v>
@@ -4063,22 +4300,22 @@
     <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
@@ -4087,31 +4324,31 @@
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -4120,40 +4357,40 @@
     <row r="29" spans="1:5">
       <c r="A29" s="5"/>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="3">
         <v>402</v>
@@ -4162,22 +4399,22 @@
     <row r="32" spans="1:5">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -4186,61 +4423,61 @@
         <v>10</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5"/>
       <c r="B34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5"/>
       <c r="B36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="3">
         <v>402</v>
@@ -4249,22 +4486,22 @@
     <row r="38" spans="1:5">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>9</v>
@@ -4279,13 +4516,13 @@
     <row r="40" spans="1:5">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" s="3">
         <v>123456</v>
@@ -4294,13 +4531,13 @@
     <row r="41" spans="1:5">
       <c r="A41" s="5"/>
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
@@ -4309,40 +4546,40 @@
     <row r="42" spans="1:5">
       <c r="A42" s="5"/>
       <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" s="3">
         <v>402</v>
@@ -4351,22 +4588,22 @@
     <row r="45" spans="1:5">
       <c r="A45" s="5"/>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5"/>
       <c r="B46" s="3" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>9</v>
@@ -4375,19 +4612,19 @@
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="3">
         <v>123456</v>
@@ -4396,13 +4633,13 @@
     <row r="48" spans="1:5">
       <c r="A48" s="5"/>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>20</v>
@@ -4411,40 +4648,40 @@
     <row r="49" spans="1:5">
       <c r="A49" s="5"/>
       <c r="B49" s="3" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5"/>
       <c r="B50" s="3" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5"/>
       <c r="B51" s="3" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="E51" s="3">
         <v>402</v>
@@ -4453,22 +4690,22 @@
     <row r="52" spans="1:5">
       <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="5"/>
       <c r="B53" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>9</v>
@@ -4477,34 +4714,34 @@
         <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5"/>
       <c r="B54" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="E54" s="3">
+        <v>123456</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="5"/>
       <c r="B55" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>20</v>
@@ -4513,64 +4750,64 @@
     <row r="56" spans="1:5">
       <c r="A56" s="5"/>
       <c r="B56" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5"/>
       <c r="B57" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="5"/>
       <c r="B58" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="5"/>
       <c r="B59" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>9</v>
@@ -4579,19 +4816,19 @@
         <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E61" s="3">
         <v>123456</v>
@@ -4600,52 +4837,52 @@
     <row r="62" spans="1:5">
       <c r="A62" s="5"/>
       <c r="B62" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="5"/>
       <c r="B63" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="5"/>
       <c r="B64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="5"/>
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" s="3">
         <v>402</v>
@@ -4654,22 +4891,22 @@
     <row r="66" spans="1:5">
       <c r="A66" s="5"/>
       <c r="B66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5"/>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>9</v>
@@ -4678,19 +4915,19 @@
         <v>10</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="5"/>
       <c r="B68" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68" s="3">
         <v>123456</v>
@@ -4699,40 +4936,40 @@
     <row r="69" spans="1:5">
       <c r="A69" s="5"/>
       <c r="B69" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="5"/>
       <c r="B70" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="5"/>
       <c r="B71" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E71" s="3">
         <v>402</v>
@@ -4741,22 +4978,22 @@
     <row r="72" spans="1:5">
       <c r="A72" s="5"/>
       <c r="B72" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="5"/>
       <c r="B73" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>9</v>
@@ -4771,13 +5008,13 @@
     <row r="74" spans="1:5">
       <c r="A74" s="5"/>
       <c r="B74" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E74" s="3">
         <v>123456</v>
@@ -4786,13 +5023,13 @@
     <row r="75" spans="1:5">
       <c r="A75" s="5"/>
       <c r="B75" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>20</v>
@@ -4801,40 +5038,40 @@
     <row r="76" spans="1:5">
       <c r="A76" s="5"/>
       <c r="B76" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="5"/>
       <c r="B77" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="5"/>
       <c r="B78" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E78" s="3">
         <v>401</v>
@@ -4843,22 +5080,24 @@
     <row r="79" spans="1:5">
       <c r="A79" s="5"/>
       <c r="B79" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="B80" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>9</v>
@@ -4867,19 +5106,19 @@
         <v>10</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5"/>
       <c r="B81" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E81" s="3">
         <v>123456</v>
@@ -4888,55 +5127,55 @@
     <row r="82" spans="1:5">
       <c r="A82" s="5"/>
       <c r="B82" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5"/>
       <c r="B83" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="5"/>
       <c r="B84" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="5"/>
       <c r="B85" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E85" s="3">
         <v>200</v>
@@ -4945,21 +5184,328 @@
     <row r="86" spans="1:5">
       <c r="A86" s="5"/>
       <c r="B86" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="5"/>
+      <c r="B87" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="5"/>
+      <c r="B88" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="5"/>
+      <c r="B89" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="5"/>
+      <c r="B90" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="5"/>
+      <c r="B91" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="5"/>
+      <c r="B92" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="5"/>
+      <c r="B93" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="5"/>
+      <c r="B94" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="5"/>
+      <c r="B95" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="5"/>
+      <c r="B96" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="5"/>
+      <c r="B97" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="5"/>
+      <c r="B98" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="5"/>
+      <c r="B99" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="5"/>
+      <c r="B100" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="5"/>
+      <c r="B101" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="5"/>
+      <c r="B102" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="5"/>
+      <c r="B103" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="5"/>
+      <c r="B104" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="5"/>
+      <c r="B105" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="5"/>
+      <c r="B106" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="5"/>
+      <c r="B107" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A86"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A80:A107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4971,7 +5517,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -4989,33 +5535,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -5027,7 +5573,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -5036,13 +5582,13 @@
     <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="3">
         <v>405</v>
@@ -5051,58 +5597,58 @@
     <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -5114,13 +5660,13 @@
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3">
         <v>401</v>
@@ -5129,10 +5675,10 @@
     <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
@@ -5144,55 +5690,55 @@
     <row r="12" spans="1:8" s="1" customFormat="1">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
@@ -5207,7 +5753,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -5222,7 +5768,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
@@ -5234,7 +5780,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -5246,13 +5792,13 @@
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -5261,16 +5807,16 @@
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/Run.xlsx
+++ b/testCase/Run.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="153">
   <si>
     <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,10 +1014,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ted8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1026,7 +1022,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ted9</t>
+    <t>ted10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次登出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1406,7 +1410,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1898,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3309,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3939,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -5106,7 +5110,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5208,7 +5212,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5310,7 +5314,7 @@
         <v>10</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5514,10 +5518,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -5819,11 +5823,54 @@
         <v>93</v>
       </c>
     </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A2:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testCase/Run.xlsx
+++ b/testCase/Run.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="10605" yWindow="465" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="10605" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="授权" sheetId="1" r:id="rId1"/>
@@ -1409,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -5520,8 +5520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -5847,7 +5847,7 @@
         <v>87</v>
       </c>
       <c r="E23" s="3">
-        <v>200</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5862,7 +5862,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/Run.xlsx
+++ b/testCase/Run.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="10605" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="10605" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="授权" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="162">
   <si>
-    <t>Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1069,6 +1065,10 @@
   </si>
   <si>
     <t>405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1456,87 +1456,87 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -1545,61 +1545,61 @@
     <row r="7" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1">
         <v>200</v>
@@ -1608,61 +1608,61 @@
     <row r="12" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1">
         <v>200</v>
@@ -1671,61 +1671,61 @@
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1">
         <v>201</v>
@@ -1734,58 +1734,58 @@
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1">
         <v>200</v>
@@ -1794,130 +1794,130 @@
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1935,7 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="A2" sqref="A2:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1950,171 +1950,171 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
         <v>123456</v>
@@ -2123,124 +2123,124 @@
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1">
         <v>123456</v>
@@ -2249,127 +2249,127 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
         <v>123456</v>
@@ -2378,25 +2378,25 @@
     <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1">
         <v>401</v>
@@ -2405,70 +2405,70 @@
     <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="1">
         <v>401</v>
@@ -2477,43 +2477,43 @@
     <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1">
         <v>123456</v>
@@ -2522,25 +2522,25 @@
     <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" s="1">
         <v>401</v>
@@ -2549,70 +2549,70 @@
     <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="1">
         <v>401</v>
@@ -2621,43 +2621,43 @@
     <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1">
         <v>123456</v>
@@ -2666,25 +2666,25 @@
     <row r="51" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E52" s="1">
         <v>402</v>
@@ -2693,43 +2693,43 @@
     <row r="53" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="1">
         <v>123456</v>
@@ -2738,117 +2738,117 @@
     <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" s="1">
         <v>888888</v>
@@ -2857,25 +2857,25 @@
     <row r="65" spans="1:5">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E66" s="1">
         <v>401</v>
@@ -2884,43 +2884,43 @@
     <row r="67" spans="1:5">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4"/>
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4"/>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1">
         <v>123456</v>
@@ -2929,25 +2929,25 @@
     <row r="70" spans="1:5">
       <c r="A70" s="4"/>
       <c r="B70" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E71" s="1">
         <v>401</v>
@@ -2956,43 +2956,43 @@
     <row r="72" spans="1:5">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="1">
         <v>123456</v>
@@ -3001,40 +3001,40 @@
     <row r="75" spans="1:5">
       <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4"/>
       <c r="B76" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4"/>
       <c r="B77" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E77" s="1">
         <v>200</v>
@@ -3043,43 +3043,43 @@
     <row r="78" spans="1:5">
       <c r="A78" s="4"/>
       <c r="B78" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4"/>
       <c r="B79" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4"/>
       <c r="B80" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80" s="1">
         <v>123456</v>
@@ -3088,129 +3088,129 @@
     <row r="81" spans="1:5">
       <c r="A81" s="4"/>
       <c r="B81" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4"/>
       <c r="B82" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4"/>
       <c r="B83" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4"/>
       <c r="B84" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4"/>
       <c r="B86" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4"/>
       <c r="B87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4"/>
       <c r="B88" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" s="1">
         <v>888888</v>
@@ -3219,25 +3219,25 @@
     <row r="91" spans="1:5">
       <c r="A91" s="4"/>
       <c r="B91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4"/>
       <c r="B92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E92" s="1">
         <v>401</v>
@@ -3246,70 +3246,70 @@
     <row r="93" spans="1:5">
       <c r="A93" s="4"/>
       <c r="B93" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4"/>
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4"/>
       <c r="B95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4"/>
       <c r="B96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4"/>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E97" s="1">
         <v>401</v>
@@ -3318,16 +3318,16 @@
     <row r="98" spans="1:5">
       <c r="A98" s="4"/>
       <c r="B98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3345,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3361,54 +3361,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>28</v>
@@ -3417,88 +3417,88 @@
     <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>28</v>
@@ -3507,25 +3507,25 @@
     <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1">
         <v>401</v>
@@ -3534,40 +3534,40 @@
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1">
         <v>401</v>
@@ -3576,55 +3576,55 @@
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1">
         <v>401</v>
@@ -3633,43 +3633,43 @@
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1">
         <v>123456</v>
@@ -3678,76 +3678,76 @@
     <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1">
         <v>200</v>
@@ -3756,64 +3756,64 @@
     <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1">
         <v>402</v>
@@ -3822,55 +3822,55 @@
     <row r="34" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="1">
         <v>402</v>
@@ -3879,28 +3879,28 @@
     <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3909,25 +3909,25 @@
     <row r="40" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" s="1">
         <v>404</v>
@@ -3936,28 +3936,28 @@
     <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +3974,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="A2" sqref="A2:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -3989,66 +3989,66 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1">
         <v>123456</v>
@@ -4057,130 +4057,130 @@
     <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1">
         <v>123456</v>
@@ -4189,85 +4189,85 @@
     <row r="15" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1">
         <v>123456</v>
@@ -4276,286 +4276,286 @@
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1">
         <v>123456</v>
@@ -4564,100 +4564,100 @@
     <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1">
         <v>123456</v>
@@ -4666,100 +4666,100 @@
     <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E54" s="1">
         <v>123456</v>
@@ -4768,100 +4768,100 @@
     <row r="55" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="1">
         <v>123456</v>
@@ -4870,97 +4870,97 @@
     <row r="62" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4"/>
       <c r="B68" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68" s="1">
         <v>123456</v>
@@ -4969,85 +4969,85 @@
     <row r="69" spans="1:5">
       <c r="A69" s="4"/>
       <c r="B69" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4"/>
       <c r="B70" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E74" s="1">
         <v>123456</v>
@@ -5056,55 +5056,55 @@
     <row r="75" spans="1:5">
       <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4"/>
       <c r="B76" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4"/>
       <c r="B77" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4"/>
       <c r="B78" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E78" s="1">
         <v>401</v>
@@ -5113,45 +5113,45 @@
     <row r="79" spans="1:5">
       <c r="A79" s="4"/>
       <c r="B79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4"/>
       <c r="B81" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E81" s="1">
         <v>123456</v>
@@ -5160,55 +5160,55 @@
     <row r="82" spans="1:5">
       <c r="A82" s="4"/>
       <c r="B82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4"/>
       <c r="B83" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4"/>
       <c r="B84" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4"/>
       <c r="B85" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E85" s="1">
         <v>200</v>
@@ -5217,43 +5217,43 @@
     <row r="86" spans="1:5">
       <c r="A86" s="4"/>
       <c r="B86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4"/>
       <c r="B87" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4"/>
       <c r="B88" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E88" s="1">
         <v>123456</v>
@@ -5262,55 +5262,55 @@
     <row r="89" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4"/>
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4"/>
       <c r="B92" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E92" s="1">
         <v>200</v>
@@ -5319,43 +5319,43 @@
     <row r="93" spans="1:5">
       <c r="A93" s="4"/>
       <c r="B93" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4"/>
       <c r="B94" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4"/>
       <c r="B95" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E95" s="1">
         <v>123456</v>
@@ -5364,55 +5364,55 @@
     <row r="96" spans="1:5">
       <c r="A96" s="4"/>
       <c r="B96" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4"/>
       <c r="B97" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4"/>
       <c r="B98" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4"/>
       <c r="B99" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E99" s="1">
         <v>200</v>
@@ -5421,100 +5421,100 @@
     <row r="100" spans="1:5">
       <c r="A100" s="4"/>
       <c r="B100" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="4"/>
       <c r="B101" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4"/>
       <c r="B102" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="4"/>
       <c r="B103" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4"/>
       <c r="B104" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="4"/>
       <c r="B105" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="4"/>
       <c r="B106" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E106" s="1">
         <v>200</v>
@@ -5523,16 +5523,16 @@
     <row r="107" spans="1:5">
       <c r="A107" s="4"/>
       <c r="B107" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5549,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -5565,141 +5565,141 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1">
         <v>401</v>
@@ -5708,91 +5708,91 @@
     <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <v>123456</v>
@@ -5801,37 +5801,37 @@
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1">
         <v>200</v>
@@ -5840,58 +5840,58 @@
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
